--- a/Example.xlsx
+++ b/Example.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,17 +23,16 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author/>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="9"/>
+            <sz val="11"/>
             <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
@@ -57,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="46">
   <si>
     <t xml:space="preserve">STATES</t>
   </si>
@@ -162,6 +161,12 @@
   </si>
   <si>
     <t xml:space="preserve">next state</t>
+  </si>
+  <si>
+    <t xml:space="preserve">post input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">post event</t>
   </si>
   <si>
     <t xml:space="preserve">exemenu</t>
@@ -198,7 +203,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -226,14 +231,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -298,31 +295,28 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="N3:S18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="1" sqref="C7 D4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4" activeCellId="1" sqref="H1:I1 D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N3" s="0" t="s">
@@ -457,7 +451,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -466,22 +460,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -502,6 +493,12 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>34</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -512,7 +509,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>22</v>
@@ -526,10 +523,10 @@
         <v>20</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>27</v>
@@ -543,7 +540,7 @@
         <v>20</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>22</v>
@@ -557,7 +554,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>7</v>
@@ -568,10 +565,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>7</v>
@@ -579,13 +576,13 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>22</v>
@@ -599,10 +596,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>27</v>
@@ -616,7 +613,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>11</v>
@@ -630,7 +627,7 @@
         <v>4</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>11</v>
@@ -641,10 +638,10 @@
         <v>11</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>11</v>
@@ -702,7 +699,7 @@
         <v>10</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -713,7 +710,7 @@
         <v>14</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -724,7 +721,7 @@
         <v>26</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G18" s="0" t="s">
         <v>19</v>
@@ -733,7 +730,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
